--- a/src/test/resources/file/twoField.xlsx
+++ b/src/test/resources/file/twoField.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Soft\JavaProjects\excel\src\test\resources\file\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="360" yWindow="105" windowWidth="14355" windowHeight="4695"/>
   </bookViews>
@@ -21,19 +26,19 @@
     <t>SAB070001</t>
   </si>
   <si>
-    <t>ANNA SUI ROMANTICA EDT TESTER 75 ml spray  с крышкoй</t>
-  </si>
-  <si>
     <t>SAB070002</t>
   </si>
   <si>
     <t>ANNA SUI ROMANTICA EDT 30 ml spray</t>
   </si>
+  <si>
+    <t>ANNA SUI ROMANTICA EDT TESTER 75 ml spray</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -130,6 +135,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -178,7 +186,7 @@
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -213,7 +221,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -425,7 +433,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -440,7 +448,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C1" s="3">
         <v>10</v>
@@ -448,10 +456,10 @@
     </row>
     <row r="2" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>2</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>3</v>
       </c>
       <c r="C2" s="3">
         <v>42</v>
